--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P09_trail9 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P09_trail9 Features.xlsx
@@ -2738,7 +2738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2749,29 +2749,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="21" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2792,115 +2790,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2917,72 +2905,66 @@
         <v>3.03986404737514e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.3600274899135824</v>
+        <v>1.266642449009184e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.7288721670392468</v>
+        <v>4.551588457894889e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.266642449009184e-06</v>
+        <v>0.04123333614259991</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.551588457894889e-06</v>
+        <v>0.1492035506471607</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.04123333614259991</v>
+        <v>0.02394350558623951</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1492035506471607</v>
+        <v>1.780450573513318</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02394350558623951</v>
+        <v>1.75546546214765</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.72751700589938</v>
+        <v>4.719042998926788</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.75546546214765</v>
+        <v>5.595710450422919e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.719042998926788</v>
+        <v>71527390.6314588</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.595710450422919e-15</v>
+        <v>1.621561799628405e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>71527390.6314588</v>
+        <v>28.62859256444359</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.621561799628405e-06</v>
+        <v>0.0001745645299075913</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>28.62859256444359</v>
+        <v>9.510448983151255</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001745645299075913</v>
+        <v>1.378280290330828</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.510448983151255</v>
+        <v>0.01578912429813792</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.378280290330828</v>
+        <v>2.868315263150122</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01578912429813792</v>
+        <v>0.9548457472434257</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.868315263150122</v>
+        <v>1.61514540190326</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9548457472434257</v>
+        <v>4</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.61514540190326</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2025128554701444</v>
       </c>
     </row>
@@ -2997,72 +2979,66 @@
         <v>2.94471370419879e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4114155123485543</v>
+        <v>1.136195272502982e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.7726115007992562</v>
+        <v>4.563542395564811e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.136195272502982e-06</v>
+        <v>0.03902567314243329</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.563542395564811e-06</v>
+        <v>0.1469805354033826</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03902567314243329</v>
+        <v>0.02311362128840407</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1469805354033826</v>
+        <v>1.782444360558198</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02311362128840407</v>
+        <v>1.776416690424941</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.720872623465394</v>
+        <v>4.461390854856512</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.776416690424941</v>
+        <v>6.26069515337821e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.461390854856512</v>
+        <v>64038206.92253715</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.26069515337821e-15</v>
+        <v>1.82089575994888e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>64038206.92253715</v>
+        <v>25.6744343299339</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.82089575994888e-06</v>
+        <v>0.0001776458133135427</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>25.6744343299339</v>
+        <v>11.49641359796229</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001776458133135427</v>
+        <v>1.145318156315541</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.49641359796229</v>
+        <v>0.02347900758158839</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.145318156315541</v>
+        <v>2.641878034706049</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02347900758158839</v>
+        <v>0.9565221313089907</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.641878034706049</v>
+        <v>1.706460408526739</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9565221313089907</v>
+        <v>5</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.706460408526739</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2130380271758784</v>
       </c>
     </row>
@@ -3077,72 +3053,66 @@
         <v>2.883811964767052e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.407763140669332</v>
+        <v>1.037789287168871e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.7878703871938972</v>
+        <v>4.574725286381074e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.037789287168871e-06</v>
+        <v>0.03806889547562017</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.574725286381074e-06</v>
+        <v>0.147057766789912</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.03806889547562017</v>
+        <v>0.02306571112229362</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.147057766789912</v>
+        <v>1.760182851563397</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02306571112229362</v>
+        <v>1.79088392655036</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.695116305103353</v>
+        <v>4.414354698223737</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.79088392655036</v>
+        <v>6.394824798795067e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.414354698223737</v>
+        <v>64514236.8874302</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.394824798795067e-15</v>
+        <v>1.788880347581072e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>64514236.8874302</v>
+        <v>26.61581563505031</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.788880347581072e-06</v>
+        <v>0.0001524374415554712</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>26.61581563505031</v>
+        <v>10.25081522608333</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001524374415554712</v>
+        <v>1.207490310755572</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.25081522608333</v>
+        <v>0.0160180063597885</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.207490310755572</v>
+        <v>2.816048702704619</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0160180063597885</v>
+        <v>0.95580498816921</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.816048702704619</v>
+        <v>1.67829450397891</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.95580498816921</v>
+        <v>10</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.67829450397891</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2109110920360434</v>
       </c>
     </row>
@@ -3157,72 +3127,66 @@
         <v>2.849406816381223e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.3693366935712981</v>
+        <v>9.971915280719886e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.8103638834363163</v>
+        <v>4.585676037894838e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.971915280719886e-07</v>
+        <v>0.03879071828754495</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>4.585676037894838e-06</v>
+        <v>0.1492309849233597</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.03879071828754495</v>
+        <v>0.02376524642559967</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1492309849233597</v>
+        <v>1.751183634616307</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02376524642559967</v>
+        <v>1.812718557167363</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.681188249326187</v>
+        <v>4.213655189289057</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.812718557167363</v>
+        <v>7.018513113312474e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.213655189289057</v>
+        <v>59959657.53264687</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.018513113312474e-15</v>
+        <v>1.926635841181938e-06</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>59959657.53264687</v>
+        <v>25.23268133432102</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.926635841181938e-06</v>
+        <v>0.0001288237324566939</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>25.23268133432102</v>
+        <v>8.066834228043078</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001288237324566939</v>
+        <v>1.327061946304652</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.066834228043078</v>
+        <v>0.008383051664282926</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.327061946304652</v>
+        <v>3.050678749360888</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008383051664282926</v>
+        <v>0.9560698243166773</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.050678749360888</v>
+        <v>1.705745984818765</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9560698243166773</v>
+        <v>10</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.705745984818765</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2161107770365829</v>
       </c>
     </row>
@@ -3237,72 +3201,66 @@
         <v>2.839531004470244e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.3122040618789562</v>
+        <v>9.971915280719886e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.8546029885086668</v>
+        <v>4.597058776544729e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.971915280719886e-07</v>
+        <v>0.04164091530997407</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>4.597058776544729e-06</v>
+        <v>0.1537005599504631</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.04164091530997407</v>
+        <v>0.02534888906724759</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1537005599504631</v>
+        <v>1.678916551672932</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02534888906724759</v>
+        <v>1.834696230184363</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.604004612760201</v>
+        <v>4.82894949832394</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.834696230184363</v>
+        <v>8.132722643791732e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.82894949832394</v>
+        <v>53532288.26903241</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.132722643791732e-15</v>
+        <v>2.075758959995854e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>53532288.26903241</v>
+        <v>23.30599116024476</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>2.075758959995854e-06</v>
+        <v>0.0001185217908335848</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>23.30599116024476</v>
+        <v>6.881153504172937</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001185217908335848</v>
+        <v>1.411155831834704</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>6.881153504172937</v>
+        <v>0.005612039217368069</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.411155831834704</v>
+        <v>3.167873195318275</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.005612039217368069</v>
+        <v>0.9473757619480488</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.167873195318275</v>
+        <v>1.74083793555749</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9473757619480488</v>
+        <v>11</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.74083793555749</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2224718515332548</v>
       </c>
     </row>
@@ -3317,72 +3275,66 @@
         <v>2.852818070413774e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.2531475962811087</v>
+        <v>9.971915280719886e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.9105257809613629</v>
+        <v>4.609336369904736e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>9.971915280719886e-07</v>
+        <v>0.04443741588488875</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>4.609336369904736e-06</v>
+        <v>0.1560643605343074</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.04443741588488875</v>
+        <v>0.02632789738173009</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1560643605343074</v>
+        <v>1.591281871230461</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02632789738173009</v>
+        <v>1.416291015468476</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.508723783961206</v>
+        <v>5.852829506098264</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.416291015468476</v>
+        <v>2.541157667224046e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.852829506098264</v>
+        <v>17657005.1840665</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>2.541157667224046e-14</v>
+        <v>6.015128203129853e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>17657005.1840665</v>
+        <v>7.922562991742181</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>6.015128203129853e-06</v>
+        <v>0.0001178250839258958</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>7.922562991742181</v>
+        <v>6.274848397665846</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001178250839258958</v>
+        <v>2.066845813131807</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>6.274848397665846</v>
+        <v>0.004639212147867904</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>2.066845813131807</v>
+        <v>3.279032266142289</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.004639212147867904</v>
+        <v>0.9409883593788186</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.279032266142289</v>
+        <v>1.842499823483607</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9409883593788186</v>
+        <v>11</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.842499823483607</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2130096024901458</v>
       </c>
     </row>
@@ -3759,7 +3711,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.496076756791583</v>
+        <v>1.46420518493327</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.91216786948381</v>
@@ -3848,7 +3800,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.527375344646549</v>
+        <v>1.48603668591117</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.575825748867274</v>
@@ -3937,7 +3889,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.521693887128241</v>
+        <v>1.484677001156488</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.745555362105888</v>
@@ -4026,7 +3978,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.541369381630052</v>
+        <v>1.497598422310942</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.911048040625459</v>
@@ -4115,7 +4067,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.553557547756256</v>
+        <v>1.50548933943158</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.774152679314355</v>
@@ -4204,7 +4156,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.571263674072979</v>
+        <v>1.526702375594744</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.719311852055831</v>
@@ -4293,7 +4245,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.559445528096213</v>
+        <v>1.515561843889284</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.782640074723184</v>
@@ -4382,7 +4334,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.55952039673533</v>
+        <v>1.517313386209315</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.765857746707333</v>
@@ -4471,7 +4423,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.559497532735414</v>
+        <v>1.522687696164926</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.758716123725127</v>
@@ -4560,7 +4512,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.569263396286541</v>
+        <v>1.530866462158246</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.800817160228811</v>
@@ -4649,7 +4601,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.590268639728475</v>
+        <v>1.548322429771633</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.71160962812449</v>
@@ -4738,7 +4690,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.554739340219174</v>
+        <v>1.523635122992225</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.516192803824189</v>
@@ -4827,7 +4779,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.560010387906586</v>
+        <v>1.531972227803347</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.635091512477956</v>
@@ -4916,7 +4868,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.551353019660944</v>
+        <v>1.523660860158552</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.533595151331204</v>
@@ -5005,7 +4957,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.565624999950227</v>
+        <v>1.539312968314037</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.609460165842361</v>
@@ -5094,7 +5046,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.557187432938889</v>
+        <v>1.544704888930219</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.63151788527593</v>
@@ -5183,7 +5135,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.563983785012256</v>
+        <v>1.553096134714427</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.63658301902464</v>
@@ -5272,7 +5224,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5872989530006</v>
+        <v>1.573514214439832</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.50250378962609</v>
@@ -5361,7 +5313,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.592968153290774</v>
+        <v>1.583833230478844</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.74356419161753</v>
@@ -5450,7 +5402,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.588556817871774</v>
+        <v>1.583407406779044</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.49321984318549</v>
@@ -5539,7 +5491,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.585681010618414</v>
+        <v>1.579896651459334</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.686121457884354</v>
@@ -5628,7 +5580,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.607479244832196</v>
+        <v>1.597934328749815</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.70967118902485</v>
@@ -5717,7 +5669,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.607914714544205</v>
+        <v>1.60029019743032</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.517170420026311</v>
@@ -5806,7 +5758,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.608310476903502</v>
+        <v>1.597204282361873</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.648656887436908</v>
@@ -5895,7 +5847,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.603901849112647</v>
+        <v>1.592939338506426</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.615175188253914</v>
@@ -5984,7 +5936,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.600156556909798</v>
+        <v>1.590774783950119</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.40057859146661</v>
@@ -6073,7 +6025,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.644823032885075</v>
+        <v>1.627183840357856</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.436377165090751</v>
@@ -6162,7 +6114,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.628693268704289</v>
+        <v>1.609425199302608</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.581535941348124</v>
@@ -6251,7 +6203,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.621303568949112</v>
+        <v>1.60400128991853</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.661308368960307</v>
@@ -6340,7 +6292,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.621563713183946</v>
+        <v>1.601630939266781</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.49761696489742</v>
@@ -6429,7 +6381,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.636833836096353</v>
+        <v>1.606421444173868</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.733630761492317</v>
@@ -6518,7 +6470,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.638147417434073</v>
+        <v>1.605117131059821</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.91018153752078</v>
@@ -6607,7 +6559,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.613158495419162</v>
+        <v>1.587031879840331</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.109182852050591</v>
@@ -6696,7 +6648,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.607401104189056</v>
+        <v>1.581283904756344</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.655962657551694</v>
@@ -6785,7 +6737,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.617114228242116</v>
+        <v>1.581031893314063</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.113287742656135</v>
@@ -6874,7 +6826,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.615038442969752</v>
+        <v>1.573996216591347</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.755833941344186</v>
@@ -6963,7 +6915,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.631420428740951</v>
+        <v>1.589706628678585</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.726601266006985</v>
@@ -7052,7 +7004,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.633755049343378</v>
+        <v>1.590230665260872</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.914450938692243</v>
@@ -7141,7 +7093,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.622289840691974</v>
+        <v>1.57765022678265</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.840487397956861</v>
@@ -7230,7 +7182,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.603151009020723</v>
+        <v>1.563508195564763</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.606513210527484</v>
@@ -7319,7 +7271,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.601351099053515</v>
+        <v>1.567817413997629</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.57498035693175</v>
@@ -7408,7 +7360,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.603784255673122</v>
+        <v>1.5650746380263</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.649193865162173</v>
@@ -7497,7 +7449,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.617916025784042</v>
+        <v>1.579800165279309</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.767348602701924</v>
@@ -7586,7 +7538,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.634488867754219</v>
+        <v>1.593442868400763</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.557016916402777</v>
@@ -7675,7 +7627,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.632235270732414</v>
+        <v>1.587220551658148</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.550927234444589</v>
@@ -7764,7 +7716,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.627244710541944</v>
+        <v>1.584186621535173</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.534196259376269</v>
@@ -7853,7 +7805,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.603752030747836</v>
+        <v>1.56281378270379</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.54176380147121</v>
@@ -7942,7 +7894,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.60125210577835</v>
+        <v>1.55669923085887</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.457744835409982</v>
@@ -8031,7 +7983,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.592131673137606</v>
+        <v>1.545143986054926</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.587884495472027</v>
@@ -8120,7 +8072,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.582801283423803</v>
+        <v>1.543097150920418</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.608204928032893</v>
@@ -8209,7 +8161,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.573281173478226</v>
+        <v>1.539806663846424</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.626205819763353</v>
@@ -8495,7 +8447,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.478515394763992</v>
+        <v>1.448944555463477</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.674061866785201</v>
@@ -8584,7 +8536,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.481359692318905</v>
+        <v>1.448063239164004</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.406069682181145</v>
@@ -8673,7 +8625,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.482276879227189</v>
+        <v>1.448358439517659</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.532173976707897</v>
@@ -8762,7 +8714,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.501986998527571</v>
+        <v>1.46512967195706</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.723431447020138</v>
@@ -8851,7 +8803,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.517849188115438</v>
+        <v>1.480897670441297</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.645678254501456</v>
@@ -8940,7 +8892,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.526303145974961</v>
+        <v>1.48649128028549</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.593453852988514</v>
@@ -9029,7 +8981,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.546566552046189</v>
+        <v>1.497625092426218</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.985633551139188</v>
@@ -9118,7 +9070,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.53929057616844</v>
+        <v>1.491095095108578</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.989398491374903</v>
@@ -9207,7 +9159,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.529424936596758</v>
+        <v>1.485112794572787</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.923367713715405</v>
@@ -9296,7 +9248,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.540963895461821</v>
+        <v>1.489850967878031</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.764310672598269</v>
@@ -9385,7 +9337,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.543845179398704</v>
+        <v>1.490777787040701</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.757389217570659</v>
@@ -9474,7 +9426,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.510420620262838</v>
+        <v>1.465477874373321</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.292612383093799</v>
@@ -9563,7 +9515,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.508966131240712</v>
+        <v>1.470074948180889</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.38169434540078</v>
@@ -9652,7 +9604,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.505527607605743</v>
+        <v>1.463652506552006</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.336968002371197</v>
@@ -9741,7 +9693,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.507085482782271</v>
+        <v>1.471717179022771</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.317094055805877</v>
@@ -9830,7 +9782,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.503817373982586</v>
+        <v>1.47028998603568</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.179437720925407</v>
@@ -9919,7 +9871,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.513852631764362</v>
+        <v>1.482688186537471</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.269200722923096</v>
@@ -10008,7 +9960,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.509756513824235</v>
+        <v>1.477325810184228</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.239954670971884</v>
@@ -10097,7 +10049,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.512980200952793</v>
+        <v>1.478658504934034</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.270567691095414</v>
@@ -10186,7 +10138,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.511196142558753</v>
+        <v>1.472367008233016</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.247334119403634</v>
@@ -10275,7 +10227,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.504499945120308</v>
+        <v>1.476416602816655</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.242700049491113</v>
@@ -10364,7 +10316,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.490190032765095</v>
+        <v>1.470595409213492</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.286948672236139</v>
@@ -10453,7 +10405,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.496793753064115</v>
+        <v>1.475197035137015</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.186091211588031</v>
@@ -10542,7 +10494,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.504200112592595</v>
+        <v>1.477910691317554</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.248772663165687</v>
@@ -10631,7 +10583,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.502384268912341</v>
+        <v>1.476470104654952</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.215569994959074</v>
@@ -10720,7 +10672,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.500152504661481</v>
+        <v>1.474236198448412</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.112919830755266</v>
@@ -10809,7 +10761,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.559471171053598</v>
+        <v>1.518517798617522</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.362343784998462</v>
@@ -10898,7 +10850,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.55829628880197</v>
+        <v>1.516453753993487</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.694146404393873</v>
@@ -10987,7 +10939,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.564278580603074</v>
+        <v>1.517175655828699</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.725021747339235</v>
@@ -11076,7 +11028,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.561656904668862</v>
+        <v>1.510884400065347</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.768508539991757</v>
@@ -11165,7 +11117,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.559121041333573</v>
+        <v>1.511650748969923</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.755547957284159</v>
@@ -11254,7 +11206,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557278340970036</v>
+        <v>1.509869457755585</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.760458505932148</v>
@@ -11343,7 +11295,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.560898176513934</v>
+        <v>1.516863457518226</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.637433982318793</v>
@@ -11432,7 +11384,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.573623223282786</v>
+        <v>1.531714495825349</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.74068305259445</v>
@@ -11521,7 +11473,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.58270953877363</v>
+        <v>1.537875591565511</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.246468483597973</v>
@@ -11610,7 +11562,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.590611916719531</v>
+        <v>1.544455840874507</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.119445180904382</v>
@@ -11699,7 +11651,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.622061317826074</v>
+        <v>1.566779575142694</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.090449772524767</v>
@@ -11788,7 +11740,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.625442524158543</v>
+        <v>1.570274221408267</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.36205659357725</v>
@@ -11877,7 +11829,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.627273995735518</v>
+        <v>1.568711201047745</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.15972631479644</v>
@@ -11966,7 +11918,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.632402957241453</v>
+        <v>1.576889831121882</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.003962212858061</v>
@@ -12055,7 +12007,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.639266924960544</v>
+        <v>1.585028174777323</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.300796556683246</v>
@@ -12144,7 +12096,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.634731413516101</v>
+        <v>1.58324142013923</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.144432788536704</v>
@@ -12233,7 +12185,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.646899356104811</v>
+        <v>1.589198393761076</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.269699551026201</v>
@@ -12322,7 +12274,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.630808419011142</v>
+        <v>1.579171701231776</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.196660361055606</v>
@@ -12411,7 +12363,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.642587954312561</v>
+        <v>1.593728390847797</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.359057482248933</v>
@@ -12500,7 +12452,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.644083038030612</v>
+        <v>1.595773889048336</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.247984043148481</v>
@@ -12589,7 +12541,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.640842411203524</v>
+        <v>1.595389144855913</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.020650913250796</v>
@@ -12678,7 +12630,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.643252796310658</v>
+        <v>1.591185624468474</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.963876473043178</v>
@@ -12767,7 +12719,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.621233279941906</v>
+        <v>1.574710839522164</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.480212451341198</v>
@@ -12856,7 +12808,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.630577635429178</v>
+        <v>1.580684997421954</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.823259921959799</v>
@@ -12945,7 +12897,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.623606593617768</v>
+        <v>1.575399490648947</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.942201475733603</v>
@@ -13231,7 +13183,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.529565002167441</v>
+        <v>1.462494186138626</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.333237613609632</v>
@@ -13320,7 +13272,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.543682116814916</v>
+        <v>1.470153227719609</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.013198129954184</v>
@@ -13409,7 +13361,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.538627830495657</v>
+        <v>1.468795493825662</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.86898949680309</v>
@@ -13498,7 +13450,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.539618087543943</v>
+        <v>1.467355219346605</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.28110514651997</v>
@@ -13587,7 +13539,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.540612159468348</v>
+        <v>1.464231263402221</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.329939683115938</v>
@@ -13676,7 +13628,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.550988316482435</v>
+        <v>1.475639214852825</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.933280600409167</v>
@@ -13765,7 +13717,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.539419180759692</v>
+        <v>1.462916846461592</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.152253244497884</v>
@@ -13854,7 +13806,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.539186570970787</v>
+        <v>1.462509578111188</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.874266067448036</v>
@@ -13943,7 +13895,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.545759232916889</v>
+        <v>1.465005374361215</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.094014751602466</v>
@@ -14032,7 +13984,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.546915337019938</v>
+        <v>1.464463699327488</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.868708705452723</v>
@@ -14121,7 +14073,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.555354649369338</v>
+        <v>1.472619144399296</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.371886730817043</v>
@@ -14210,7 +14162,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.510665456821017</v>
+        <v>1.444076067114621</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.39029145279032</v>
@@ -14299,7 +14251,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.514366973651384</v>
+        <v>1.452246930478294</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.413782380719459</v>
@@ -14388,7 +14340,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.515204024449226</v>
+        <v>1.453010662963486</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.438793910639345</v>
@@ -14477,7 +14429,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.515048602377963</v>
+        <v>1.455663305392923</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.399056480710645</v>
@@ -14566,7 +14518,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.503905868224853</v>
+        <v>1.460059153111416</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.385685320087187</v>
@@ -14655,7 +14607,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.500166979081367</v>
+        <v>1.46173740511167</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.434351740106898</v>
@@ -14744,7 +14696,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.502769979263682</v>
+        <v>1.461981818808106</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.34947513665713</v>
@@ -14833,7 +14785,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.505747287594342</v>
+        <v>1.469654912053501</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.438019454106319</v>
@@ -14922,7 +14874,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.508087937653432</v>
+        <v>1.468152743584222</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.243182305897222</v>
@@ -15011,7 +14963,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.503698387060454</v>
+        <v>1.465034343070894</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.365361832168679</v>
@@ -15100,7 +15052,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.506478306714568</v>
+        <v>1.467567457345748</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.392147947271639</v>
@@ -15189,7 +15141,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.498296330088871</v>
+        <v>1.46442110434995</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.297903476374192</v>
@@ -15278,7 +15230,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.50258159283134</v>
+        <v>1.47202152216219</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.332919190609798</v>
@@ -15367,7 +15319,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.502039261677886</v>
+        <v>1.471377230389178</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.353127430786431</v>
@@ -15456,7 +15408,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.484938319937258</v>
+        <v>1.460183693894556</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.191432619127304</v>
@@ -15545,7 +15497,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.539208261274948</v>
+        <v>1.503260401861859</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.473909208413587</v>
@@ -15634,7 +15586,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.541859000458935</v>
+        <v>1.497506794711706</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.807218465045178</v>
@@ -15723,7 +15675,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.543910531047388</v>
+        <v>1.497669084806443</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.666476617494338</v>
@@ -15812,7 +15764,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.546775024598982</v>
+        <v>1.501357444712108</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.639691938327223</v>
@@ -15901,7 +15853,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.554102210802129</v>
+        <v>1.501442481432802</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.78694453107305</v>
@@ -15990,7 +15942,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.550951115098226</v>
+        <v>1.488157744138074</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.614136523044301</v>
@@ -16079,7 +16031,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.524652239565089</v>
+        <v>1.472348285536669</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.800933222940638</v>
@@ -16168,7 +16120,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.52275374329382</v>
+        <v>1.46746804430066</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.642037960595392</v>
@@ -16257,7 +16209,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.527942179338126</v>
+        <v>1.4688919905196</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.63235738679947</v>
@@ -16346,7 +16298,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.530739028169779</v>
+        <v>1.461314238209295</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.738226864543509</v>
@@ -16435,7 +16387,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.53693638754768</v>
+        <v>1.460441489781825</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.67428499139679</v>
@@ -16524,7 +16476,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.535360228008821</v>
+        <v>1.462812185372708</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.774964135652835</v>
@@ -16613,7 +16565,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.530971066696019</v>
+        <v>1.455383112204597</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.741920056236459</v>
@@ -16702,7 +16654,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.522187711923165</v>
+        <v>1.451807748883248</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.669817895291117</v>
@@ -16791,7 +16743,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.537887217656419</v>
+        <v>1.460899252359674</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.965571828139653</v>
@@ -16880,7 +16832,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.537617739724046</v>
+        <v>1.460670365484621</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.07226569316914</v>
@@ -16969,7 +16921,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.535731119550914</v>
+        <v>1.462997289108116</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.935816581132627</v>
@@ -17058,7 +17010,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.532577186037116</v>
+        <v>1.46345857527747</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.781558294165107</v>
@@ -17147,7 +17099,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.524108130723556</v>
+        <v>1.44924510807325</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.781969995658667</v>
@@ -17236,7 +17188,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.521742403936104</v>
+        <v>1.455505465103058</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.901466189162742</v>
@@ -17325,7 +17277,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.525108744741734</v>
+        <v>1.465828817131673</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.558137814134244</v>
@@ -17414,7 +17366,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.540334616099547</v>
+        <v>1.474362712337071</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.701946579750026</v>
@@ -17503,7 +17455,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.539813893963262</v>
+        <v>1.481194292418064</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.820672187701523</v>
@@ -17592,7 +17544,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.528502894523357</v>
+        <v>1.474545777492545</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.064836238529135</v>
@@ -17681,7 +17633,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.52102254393709</v>
+        <v>1.479790504505723</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.786258093108336</v>
@@ -17967,7 +17919,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.231640652415605</v>
+        <v>1.199366750598353</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.133510155221054</v>
@@ -18056,7 +18008,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.22945195713367</v>
+        <v>1.197053068462644</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.068380183773667</v>
@@ -18145,7 +18097,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.232088885969808</v>
+        <v>1.19913771361024</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.148037489470064</v>
@@ -18234,7 +18186,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.248637087746196</v>
+        <v>1.21367909428989</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.197317456814122</v>
@@ -18323,7 +18275,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.260224511577921</v>
+        <v>1.218604070312314</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.09484293251355</v>
@@ -18412,7 +18364,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.2595622854252</v>
+        <v>1.219919403366864</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.20113670216298</v>
@@ -18501,7 +18453,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.267143313444575</v>
+        <v>1.225987222496708</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.189780386627175</v>
@@ -18590,7 +18542,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.284965848887721</v>
+        <v>1.239343060040572</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.113370773013024</v>
@@ -18679,7 +18631,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.27909102404451</v>
+        <v>1.238075573940376</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.898051393155833</v>
@@ -18768,7 +18720,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.282750444229598</v>
+        <v>1.241860786578549</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.085117116020931</v>
@@ -18857,7 +18809,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.29733698252861</v>
+        <v>1.252525347851456</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.040442840793635</v>
@@ -18946,7 +18898,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.3019266739891</v>
+        <v>1.260237763007395</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.042961262091992</v>
@@ -19035,7 +18987,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.327140176693031</v>
+        <v>1.282621637164588</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.070105311457429</v>
@@ -19124,7 +19076,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.328930291949036</v>
+        <v>1.284809493326667</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.081162263515285</v>
@@ -19213,7 +19165,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.333487606765625</v>
+        <v>1.290849191735394</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.974946973513209</v>
@@ -19302,7 +19254,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.335717826885776</v>
+        <v>1.295155067800389</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.942963824269588</v>
@@ -19391,7 +19343,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.347593851684081</v>
+        <v>1.314647838507682</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.005813843031175</v>
@@ -19480,7 +19432,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.335773917971342</v>
+        <v>1.302428685762139</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.065287909230936</v>
@@ -19569,7 +19521,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.329134787103822</v>
+        <v>1.296418731825593</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.138112780124411</v>
@@ -19658,7 +19610,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.32284127153061</v>
+        <v>1.292647654251172</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.999279714997922</v>
@@ -19747,7 +19699,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.320572074097653</v>
+        <v>1.289046050808864</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.052957795736125</v>
@@ -19836,7 +19788,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.321559504021356</v>
+        <v>1.288631437711375</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.17243543937036</v>
@@ -19925,7 +19877,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.302132724383795</v>
+        <v>1.282758522945075</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.01993735619503</v>
@@ -20014,7 +19966,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.328159384695936</v>
+        <v>1.305600796168942</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.040742912321832</v>
@@ -20103,7 +20055,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.316760268638787</v>
+        <v>1.288895050042681</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.033820422843423</v>
@@ -20192,7 +20144,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.291855381145755</v>
+        <v>1.271714862760579</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.019416704451107</v>
@@ -20281,7 +20233,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.278494841101998</v>
+        <v>1.257356984553968</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.087204904313815</v>
@@ -20370,7 +20322,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.269614064257918</v>
+        <v>1.248390571492901</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.05878915799125</v>
@@ -20459,7 +20411,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.266250281718422</v>
+        <v>1.248568113117263</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.057534141317333</v>
@@ -20548,7 +20500,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.247824806489774</v>
+        <v>1.232794387205188</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.06363432915579</v>
@@ -20637,7 +20589,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.238229170391687</v>
+        <v>1.22381926945799</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.083652648335624</v>
@@ -20726,7 +20678,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.230695748157121</v>
+        <v>1.212689548367789</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.105730208487651</v>
@@ -20815,7 +20767,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.208999804611202</v>
+        <v>1.191787908196291</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.06437218224062</v>
@@ -20904,7 +20856,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.224299224433214</v>
+        <v>1.205968171902708</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.982914051891438</v>
@@ -20993,7 +20945,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.221960971312615</v>
+        <v>1.199637529724821</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.035549416232226</v>
@@ -21082,7 +21034,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.215355290506487</v>
+        <v>1.188425571368247</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.104367641146214</v>
@@ -21171,7 +21123,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.228696654730712</v>
+        <v>1.198473180057058</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.945447034743113</v>
@@ -21260,7 +21212,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.224064560055012</v>
+        <v>1.191088431811143</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.096028675547069</v>
@@ -21349,7 +21301,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.216458731787366</v>
+        <v>1.188727434248889</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.026661461686446</v>
@@ -21438,7 +21390,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.226692941584984</v>
+        <v>1.199227643521743</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.989742517571521</v>
@@ -21527,7 +21479,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.226499350701174</v>
+        <v>1.198621174939918</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.953724594733814</v>
@@ -21616,7 +21568,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.212234620353351</v>
+        <v>1.186916357053262</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.012706287158716</v>
@@ -21705,7 +21657,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.219706298241302</v>
+        <v>1.196466950874711</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.994738110639631</v>
@@ -21794,7 +21746,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.203940443177023</v>
+        <v>1.180635845776413</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.099030130466633</v>
@@ -21883,7 +21835,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.217975820362403</v>
+        <v>1.193582565332289</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.995750895029689</v>
@@ -21972,7 +21924,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.207900155148137</v>
+        <v>1.182771262534295</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.024222800211168</v>
@@ -22061,7 +22013,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.211552834876664</v>
+        <v>1.186644796789594</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.92892372221046</v>
@@ -22150,7 +22102,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.224975847249624</v>
+        <v>1.198895596788831</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.007438601883282</v>
@@ -22239,7 +22191,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.209959172581708</v>
+        <v>1.186857132261317</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.780211332238545</v>
@@ -22328,7 +22280,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.210119838544047</v>
+        <v>1.190182631019253</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.156787315423089</v>
@@ -22417,7 +22369,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.214263021596651</v>
+        <v>1.197116197089266</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.175486118664935</v>
@@ -22703,7 +22655,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.439166497462574</v>
+        <v>1.417818328461687</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.574015498780634</v>
@@ -22792,7 +22744,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.462055559567233</v>
+        <v>1.441386408570301</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.599770130985952</v>
@@ -22881,7 +22833,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.456288239325935</v>
+        <v>1.437965145208891</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.348664791214692</v>
@@ -22970,7 +22922,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.487849255745772</v>
+        <v>1.466954708519204</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.441717263288688</v>
@@ -23059,7 +23011,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.493548336541046</v>
+        <v>1.472519867392083</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.490782038230163</v>
@@ -23148,7 +23100,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.518579525477389</v>
+        <v>1.492202904610365</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.461216607098541</v>
@@ -23237,7 +23189,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.5246853243847</v>
+        <v>1.490960122704969</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.909041487970955</v>
@@ -23326,7 +23278,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.51645377702624</v>
+        <v>1.488066201645459</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.886186727995401</v>
@@ -23415,7 +23367,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.537623362154545</v>
+        <v>1.50940649717717</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.839900421087561</v>
@@ -23504,7 +23456,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.552760436135298</v>
+        <v>1.523770074456539</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.991195637796443</v>
@@ -23593,7 +23545,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.551467369473557</v>
+        <v>1.525463994920299</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.839337810574302</v>
@@ -23682,7 +23634,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.551350873544257</v>
+        <v>1.531543928979478</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.974201283505028</v>
@@ -23771,7 +23723,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.576452415186165</v>
+        <v>1.562323080512584</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.683706924208189</v>
@@ -23860,7 +23812,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.592415159741157</v>
+        <v>1.580033983378361</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.783760915893139</v>
@@ -23949,7 +23901,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.618939472973372</v>
+        <v>1.606527033858761</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.765031172560105</v>
@@ -24038,7 +23990,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.62805066951665</v>
+        <v>1.625411463786555</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.128858092777078</v>
@@ -24127,7 +24079,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.641228825802166</v>
+        <v>1.64433273720418</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.133724732335496</v>
@@ -24216,7 +24168,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.656314364691576</v>
+        <v>1.659877557691859</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.934132870833938</v>
@@ -24305,7 +24257,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.672425362193884</v>
+        <v>1.674505585477369</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.127672116158729</v>
@@ -24394,7 +24346,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.685226780371769</v>
+        <v>1.684807970179591</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.988994685132778</v>
@@ -24483,7 +24435,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.656074776471459</v>
+        <v>1.660628889659816</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.952617734273358</v>
@@ -24572,7 +24524,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.647405540975169</v>
+        <v>1.660323194245493</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.734765583468787</v>
@@ -24661,7 +24613,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.653615220006442</v>
+        <v>1.665458561523165</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.922993920126173</v>
@@ -24750,7 +24702,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.651457865393522</v>
+        <v>1.664321893045188</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.868910701290591</v>
@@ -24839,7 +24791,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.655271758772702</v>
+        <v>1.672258020927449</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.88950381855262</v>
@@ -24928,7 +24880,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.665611013674654</v>
+        <v>1.682345470952145</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.76593924438589</v>
@@ -25017,7 +24969,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.682052417546658</v>
+        <v>1.693118989375883</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.718840789766317</v>
@@ -25106,7 +25058,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.665483421602</v>
+        <v>1.675555754565139</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.698113110438371</v>
@@ -25195,7 +25147,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.653960900989329</v>
+        <v>1.660358614184308</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.787055973668979</v>
@@ -25284,7 +25236,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.637515794676211</v>
+        <v>1.646583796673125</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.761231362869047</v>
@@ -25373,7 +25325,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.63519712294803</v>
+        <v>1.643456598919346</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.514837000870136</v>
@@ -25462,7 +25414,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.621296593643144</v>
+        <v>1.61893328962994</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.717188919096742</v>
@@ -25551,7 +25503,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.616559662698569</v>
+        <v>1.611989124005357</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.486116135296122</v>
@@ -25640,7 +25592,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.607869114167259</v>
+        <v>1.601727193593627</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.639317772309162</v>
@@ -25729,7 +25681,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.626335867974436</v>
+        <v>1.610343902527021</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.216192385191439</v>
@@ -25818,7 +25770,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.664120647866815</v>
+        <v>1.63861733369497</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.665781432855634</v>
@@ -25907,7 +25859,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.694560151767162</v>
+        <v>1.66197056321775</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.198540755006724</v>
@@ -25996,7 +25948,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.705044319338247</v>
+        <v>1.672156251498058</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.351185593389601</v>
@@ -26085,7 +26037,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.698329444019181</v>
+        <v>1.662472475392635</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.547380120983857</v>
@@ -26174,7 +26126,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.687708834412441</v>
+        <v>1.65056811706439</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.254229529926775</v>
@@ -26263,7 +26215,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.68455986628466</v>
+        <v>1.650720348326559</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.443642175299282</v>
@@ -26352,7 +26304,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.688218700758317</v>
+        <v>1.653057642131248</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.340813144243754</v>
@@ -26441,7 +26393,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.696287703704587</v>
+        <v>1.662022412733373</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.928913124939382</v>
@@ -26530,7 +26482,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.707429538651549</v>
+        <v>1.674991028325302</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.388316109670089</v>
@@ -26619,7 +26571,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.716119156769358</v>
+        <v>1.682660235523314</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.355712188955529</v>
@@ -26708,7 +26660,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.716394687079859</v>
+        <v>1.688617226429604</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.133960922544938</v>
@@ -26797,7 +26749,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.708139226860123</v>
+        <v>1.68910230402007</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.402586266557761</v>
@@ -26886,7 +26838,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.693407593904426</v>
+        <v>1.68385884697162</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.576195043906818</v>
@@ -26975,7 +26927,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.620044371715547</v>
+        <v>1.629061359784802</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.339390905181943</v>
@@ -27064,7 +27016,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.623929837929958</v>
+        <v>1.641936818922867</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.482712347584768</v>
@@ -27153,7 +27105,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.580913748114797</v>
+        <v>1.609206581736048</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.583940152616008</v>
@@ -27439,7 +27391,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.551251080076165</v>
+        <v>1.509865618412229</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.947049390557504</v>
@@ -27528,7 +27480,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.574397817977131</v>
+        <v>1.528486137606925</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.567836598194527</v>
@@ -27617,7 +27569,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.540143301417622</v>
+        <v>1.503118171123121</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.717234507405806</v>
@@ -27706,7 +27658,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.555052419347871</v>
+        <v>1.517934831684222</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.658416688701469</v>
@@ -27795,7 +27747,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.565663714016641</v>
+        <v>1.525328276349051</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.600588033973835</v>
@@ -27884,7 +27836,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.562267063095972</v>
+        <v>1.522847531842932</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.648845437611485</v>
@@ -27973,7 +27925,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.555460746071093</v>
+        <v>1.51122231713167</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.54448800210964</v>
@@ -28062,7 +28014,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543569276133969</v>
+        <v>1.50549976231848</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.668942502850063</v>
@@ -28151,7 +28103,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.540342791524051</v>
+        <v>1.501766925649759</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.685523612744398</v>
@@ -28240,7 +28192,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.559634115897871</v>
+        <v>1.522029592423463</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.621518396735605</v>
@@ -28329,7 +28281,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.575709122401149</v>
+        <v>1.540678902073894</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.573980487720785</v>
@@ -28418,7 +28370,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.540407652708021</v>
+        <v>1.518427036832975</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.490997361823249</v>
@@ -28507,7 +28459,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.542020680482877</v>
+        <v>1.52688379862522</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.499391625404079</v>
@@ -28596,7 +28548,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.514953026608997</v>
+        <v>1.509962510378579</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.371138543847933</v>
@@ -28685,7 +28637,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.526580008682502</v>
+        <v>1.523611325022691</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.407545820731278</v>
@@ -28774,7 +28726,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.512829343629338</v>
+        <v>1.518253032806636</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.537323521952063</v>
@@ -28863,7 +28815,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.528904818310099</v>
+        <v>1.53899492070686</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.277726530194678</v>
@@ -28952,7 +28904,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.552747038120424</v>
+        <v>1.56197781680961</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.421117922565528</v>
@@ -29041,7 +28993,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.550999543087397</v>
+        <v>1.562207865322619</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.477671130146373</v>
@@ -29130,7 +29082,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.539163845772431</v>
+        <v>1.549469085900119</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.40126549472301</v>
@@ -29219,7 +29171,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.535243554034737</v>
+        <v>1.543913443282433</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.446404975318773</v>
@@ -29308,7 +29260,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.553623360707063</v>
+        <v>1.56312449364085</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.495397126543623</v>
@@ -29397,7 +29349,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.556331248514712</v>
+        <v>1.566310560865217</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.380602282226667</v>
@@ -29486,7 +29438,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.55580171102648</v>
+        <v>1.568001834544933</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.324732458691121</v>
@@ -29575,7 +29527,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.5561395656588</v>
+        <v>1.569014185942681</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.479326468446344</v>
@@ -29664,7 +29616,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555436861287869</v>
+        <v>1.565045287552279</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.306016932628288</v>
@@ -29753,7 +29705,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.591980707628023</v>
+        <v>1.594614771329772</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.386046317052009</v>
@@ -29842,7 +29794,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.575056303475757</v>
+        <v>1.573968551017104</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.439168854366357</v>
@@ -29931,7 +29883,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.597268677502172</v>
+        <v>1.588045137158811</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.136362961737617</v>
@@ -30020,7 +29972,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.609602120838771</v>
+        <v>1.598227261683739</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.818314301280962</v>
@@ -30109,7 +30061,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.63741626513285</v>
+        <v>1.619324269597149</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.659464180423423</v>
@@ -30198,7 +30150,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.650268568501635</v>
+        <v>1.631354144558213</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.006822184125076</v>
@@ -30287,7 +30239,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.637150490813599</v>
+        <v>1.619569793441084</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.941870389320953</v>
@@ -30376,7 +30328,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.642784745621001</v>
+        <v>1.620662935040771</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.786136036274161</v>
@@ -30465,7 +30417,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.658203035434523</v>
+        <v>1.633193732970153</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.670189755192773</v>
@@ -30554,7 +30506,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.668256792097279</v>
+        <v>1.642500291193508</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.715411143956628</v>
@@ -30643,7 +30595,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.680844929754939</v>
+        <v>1.655222907197748</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.765969917661415</v>
@@ -30732,7 +30684,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.698837726431273</v>
+        <v>1.668812873687088</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.896733367245667</v>
@@ -30821,7 +30773,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.69618855615679</v>
+        <v>1.663689452176666</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.97011930515632</v>
@@ -30910,7 +30862,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.676914747369419</v>
+        <v>1.647269726385187</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.800035228541405</v>
@@ -30999,7 +30951,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.669162110467739</v>
+        <v>1.644166084077113</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.741195295268191</v>
@@ -31088,7 +31040,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.67556832278699</v>
+        <v>1.642970124491327</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.077191019032907</v>
@@ -31177,7 +31129,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.696756050884479</v>
+        <v>1.658038441851012</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.688199283958888</v>
@@ -31266,7 +31218,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.715932115747466</v>
+        <v>1.672978637153767</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.767095538350752</v>
@@ -31355,7 +31307,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.713181815105074</v>
+        <v>1.66594508670333</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.739575110882662</v>
@@ -31444,7 +31396,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.7164564893133</v>
+        <v>1.672903788186523</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.618680170965803</v>
@@ -31533,7 +31485,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.687747659853527</v>
+        <v>1.650301809970829</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.735113484689972</v>
@@ -31622,7 +31574,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.675841712296818</v>
+        <v>1.639922451962684</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.63134301217427</v>
@@ -31711,7 +31663,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.675089723050402</v>
+        <v>1.636577866702357</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.048055505456821</v>
@@ -31800,7 +31752,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.659392484914696</v>
+        <v>1.628788246524977</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.623458569787883</v>
@@ -31889,7 +31841,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.64412125570899</v>
+        <v>1.612303853096658</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.684918684175681</v>
